--- a/00.프로젝트 관리/프로젝트 계획서_250124.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250124.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22620" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1665,141 +1665,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>0. 멘토 피드백 정리 !!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>1. 행성 위치값 이동 기능 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
--&gt; 기능정의 변경으로 삭제
-2. 갤러리 이미지 클릭시 제목 출력 기능구현(이월)
-3. 텍스트 미디어쿼리(이월)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>+ 애니메이션 structure 섹션 위치값 연결</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-4. 갤러리 서브메뉴 미디어 쿼리 (이월)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-5. 푸터 전에 각 행성으로 이동 기능 구현(이월, 진행중)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
--&gt; 기능정의 변경으로 삭제
-6. </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>커서에 이미지 따라다닐 수 있도록 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
--&gt; 구현 우선순위 고려하여 삭제</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 갤러리 이미지 클릭시 제목 출력 기능구현
-2. 텍스트 미디어쿼리
-3. 갤러리 서브메뉴 미디어 쿼리
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="18"/>
         <color rgb="FFFF0000"/>
@@ -1829,6 +1694,81 @@
     <t>질문
 1.제이슨 데이터 불러오기
 -제이슨 객체 안에 있는 각 타이틀 불러오는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 각 섹션 타이틀 클릭시 섹션 데이터 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. position: fixed
+2. 섹션에 따라 좌,우 위치 이동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. 스크롤 마지막 컨텐츠 이동시  행성 3D모델링 이미지과 교체
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기능정의 변경으로 삭제)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지 - Jupiter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브페이지 - Saturn,Uranus,Neptune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 1월 24일 구현했던 내용 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 무한 스크롤, 행성의 마지막 전 섹션이 화면의 상단에 닿았을 때, 다음 행성 호출.
+2. 이전 , 현재 , 다음 행성 총 3개의 데이터가 교체.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 회의 진행 및 회의록 작성
+2. 프로젝트 계획서 수정
+- 기능정의
+- 구현일정
+3. 지금까지 구현한 페이지 내용 정리, 마무리
+- 컴포넌트로 쓸 예정이기때문에 html,scss 정리중
+- 위치 타이핑 호출 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1839,72 +1779,303 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 각 섹션 타이틀 클릭시 섹션 데이터 교체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. position: fixed
-2. 섹션에 따라 좌,우 위치 이동
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. 스크롤 마지막 컨텐츠 이동시  행성 3D모델링 이미지과 교체
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기능정의 변경으로 삭제)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>0. 멘토 피드백 정리 !!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Mercury,Venus,Earth,Mars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Jupiter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Saturn,Uranus,Neptune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 1월 24일 구현했던 내용 반영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 무한 스크롤, 행성의 마지막 전 섹션이 화면의 상단에 닿았을 때, 다음 행성 호출.
-2. 이전 , 현재 , 다음 행성 총 3개의 데이터가 교체.</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. 행성 위치값 이동 기능 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt; 기능정의 변경으로 삭제
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 갤러리 이미지 클릭시 제목 출력 기능구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(이월)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3. 텍스트 미디어쿼리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(이월)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>+ 애니메이션 structure 섹션 위치값 연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>4. 갤러리 서브메뉴 미디어 쿼리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> (이월)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 푸터 전에 각 행성으로 이동 기능 구현(이월, 진행중)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt; 기능정의 변경으로 삭제
+6. </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>커서에 이미지 따라다닐 수 있도록 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt; 구현 우선순위 고려하여 삭제</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>1. 갤러리 이미지 클릭시 제목 출력 기능구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(이월)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 텍스트 미디어쿼리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(이월)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3. 갤러리 서브메뉴 미디어 쿼리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">(이월)
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">서브페이지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Mercury,Venus,Earth,Mars</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. mercury 서브페이지 
+- 행성 움직임 기능구현
+- 갤러리 이미지 클릭시 제목 출력 기능구현(이월)
+- 텍스트 미디어쿼리(이월)
+- 갤러리 서브메뉴 미디어 쿼리(이월)
+- 컴포넌트화 시키기
+2. 퀵메뉴바
+3. Mercury,Venus,Earth,Mars</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1918,7 +2089,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2226,6 +2397,15 @@
     <font>
       <sz val="15"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2652,7 +2832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2827,6 +3007,60 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2857,58 +3091,22 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2920,23 +3118,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3241,8 +3424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3263,11 +3446,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -3293,56 +3476,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="61">
         <v>45670</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="63"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -3417,13 +3600,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -3508,7 +3691,7 @@
       <c r="E7" s="11">
         <v>45694</v>
       </c>
-      <c r="F7" s="82" t="s">
+      <c r="F7" s="72" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="22">
@@ -3552,7 +3735,7 @@
       <c r="E8" s="11">
         <v>45694</v>
       </c>
-      <c r="F8" s="83"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>25</v>
@@ -3592,7 +3775,7 @@
       <c r="E9" s="11">
         <v>45694</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3632,7 +3815,7 @@
       <c r="E10" s="11">
         <v>45694</v>
       </c>
-      <c r="F10" s="83"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3672,7 +3855,7 @@
       <c r="E11" s="11">
         <v>45694</v>
       </c>
-      <c r="F11" s="83"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3712,7 +3895,7 @@
       <c r="E12" s="11">
         <v>45694</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3752,7 +3935,7 @@
       <c r="E13" s="11">
         <v>45694</v>
       </c>
-      <c r="F13" s="83"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="22">
         <f t="shared" ref="G13:G34" si="4">IF(E13="","",E13+1-D13)</f>
         <v>25</v>
@@ -3792,7 +3975,7 @@
       <c r="E14" s="11">
         <v>45694</v>
       </c>
-      <c r="F14" s="83"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -3830,7 +4013,7 @@
       <c r="E15" s="11">
         <v>45694</v>
       </c>
-      <c r="F15" s="83"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -3858,7 +4041,7 @@
       <c r="Z15" s="35"/>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="95" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="53"/>
@@ -3868,7 +4051,7 @@
       <c r="E16" s="11">
         <v>45694</v>
       </c>
-      <c r="F16" s="84"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="22">
         <f>IF(E16="","",E16+1-D16)</f>
         <v>14</v>
@@ -3897,7 +4080,7 @@
     </row>
     <row r="17" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11">
@@ -3906,7 +4089,7 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="85" t="s">
+      <c r="F17" s="75" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="22">
@@ -3940,7 +4123,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D18" s="11">
         <v>45681</v>
@@ -3948,7 +4131,7 @@
       <c r="E18" s="11">
         <v>45694</v>
       </c>
-      <c r="F18" s="83"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18" si="5">IF(E18="","",E18+1-D18)</f>
         <v>14</v>
@@ -3980,7 +4163,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D19" s="11">
         <v>45670</v>
@@ -3988,7 +4171,7 @@
       <c r="E19" s="11">
         <v>45681</v>
       </c>
-      <c r="F19" s="83"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4019,7 +4202,7 @@
       <c r="B20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="58" t="s">
         <v>121</v>
       </c>
       <c r="D20" s="11">
@@ -4028,7 +4211,7 @@
       <c r="E20" s="11">
         <v>45684</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="22">
         <f t="shared" ref="G20:G26" si="6">IF(E20="","",E20+1-D20)</f>
         <v>15</v>
@@ -4059,14 +4242,14 @@
       <c r="B21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="72"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45684</v>
       </c>
-      <c r="F21" s="83"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4097,14 +4280,14 @@
       <c r="B22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45684</v>
       </c>
-      <c r="F22" s="83"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4135,14 +4318,14 @@
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="72"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45684</v>
       </c>
-      <c r="F23" s="83"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4173,14 +4356,14 @@
       <c r="B24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="72"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="11">
         <v>45670</v>
       </c>
       <c r="E24" s="11">
         <v>45684</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4211,14 +4394,14 @@
       <c r="B25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="73"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="11">
         <v>45670</v>
       </c>
       <c r="E25" s="11">
         <v>45684</v>
       </c>
-      <c r="F25" s="83"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4258,7 +4441,7 @@
       <c r="E26" s="11">
         <v>45684</v>
       </c>
-      <c r="F26" s="83"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4298,7 +4481,7 @@
       <c r="E27" s="11">
         <v>45684</v>
       </c>
-      <c r="F27" s="83"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="22">
         <f t="shared" ref="G27" si="7">IF(E27="","",E27+1-D27)</f>
         <v>15</v>
@@ -4334,7 +4517,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="83"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="22" t="str">
         <f t="shared" ref="G28" si="8">IF(E28="","",E28+1-D28)</f>
         <v/>
@@ -4363,10 +4546,10 @@
     </row>
     <row r="29" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D29" s="11">
         <v>45670</v>
@@ -4398,10 +4581,10 @@
     </row>
     <row r="30" spans="2:26" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D30" s="11">
         <v>45684</v>
@@ -4587,6 +4770,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="I4:Z4"/>
     <mergeCell ref="G4:G6"/>
@@ -4594,11 +4782,6 @@
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="F17:F28"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:Z34">
@@ -4656,9 +4839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4677,22 +4860,23 @@
     <col min="14" max="14" width="49.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="54.25" customWidth="1"/>
     <col min="16" max="16" width="40.75" customWidth="1"/>
-    <col min="17" max="23" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="27.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4715,126 +4899,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="86"/>
-      <c r="C4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="92" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="86" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="87"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="87"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="88"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -4953,7 +5137,9 @@
       <c r="P8" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="Q8" s="24"/>
+      <c r="Q8" s="24" t="s">
+        <v>131</v>
+      </c>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
@@ -5016,123 +5202,123 @@
       <c r="X11" s="39"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="86"/>
-      <c r="C12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="92" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="86" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="87"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="87"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="88"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="88"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5232,7 +5418,7 @@
         <v>104</v>
       </c>
       <c r="M16" s="57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="49" t="s">
         <v>113</v>
@@ -5241,7 +5427,7 @@
         <v>115</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
@@ -5256,123 +5442,123 @@
       <c r="X17" s="39"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="86"/>
-      <c r="C18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="79" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="66" t="s">
         <v>21</v>
       </c>
       <c r="O18" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="92" t="s">
+      <c r="P18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="86" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="87"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
       <c r="O19" s="90"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="93"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="87"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="88"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
       <c r="O20" s="91"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="94"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="88"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5481,12 +5667,14 @@
         <v>110</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="P22" s="43"/>
+        <v>134</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>136</v>
+      </c>
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
       <c r="S22" s="43"/>
@@ -5529,123 +5717,123 @@
       <c r="X24" s="39"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="86"/>
-      <c r="C25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="79" t="s">
+      <c r="B25" s="92"/>
+      <c r="C25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="66" t="s">
         <v>21</v>
       </c>
       <c r="O25" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="92" t="s">
+      <c r="P25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="86" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="87"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
       <c r="O26" s="90"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="93"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="87"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="88"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
       <c r="O27" s="91"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="94"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="68"/>
+      <c r="W27" s="68"/>
+      <c r="X27" s="88"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5743,7 +5931,7 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
       <c r="O29" s="56" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
@@ -5760,83 +5948,6 @@
     <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -5853,6 +5964,83 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250124.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250124.xlsx
@@ -1658,11 +1658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 피드백 정리 ,기존기능 재정의 , 추가 구현기능정의
-2. 회의록 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1745,37 +1740,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서브페이지 - Jupiter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브페이지 - Saturn,Uranus,Neptune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 1월 24일 구현했던 내용 반영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 무한 스크롤, 행성의 마지막 전 섹션이 화면의 상단에 닿았을 때, 다음 행성 호출.
 2. 이전 , 현재 , 다음 행성 총 3개의 데이터가 교체.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 회의 진행 및 회의록 작성
-2. 프로젝트 계획서 수정
-- 기능정의
-- 구현일정
-3. 지금까지 구현한 페이지 내용 정리, 마무리
-- 컴포넌트로 쓸 예정이기때문에 html,scss 정리중
-- 위치 타이핑 호출 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문
-1. 제이슨 데이터 불러오기
-- 제이슨 객체 안에 있는 각 타이틀 불러오는 방법
-- 데이터 화면에 호출되는 과정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2051,6 +2021,185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. 피드백 정리 ,기존기능 재정의 , 추가 구현기능정의
+2. 회의록 작성
+3. 회의 진행 및 회의록 작성
+4. 프로젝트 계획서 수정
+- 기능정의
+- 구현일정
+5. 지금까지 구현한 페이지 내용 정리, 마무리
+- 컴포넌트로 쓸 예정이기때문에 html,scss 정리중
+- 위치 타이핑 호출 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  Venus,Earth,Mars 갤러리
+- 가능하면 최근 게시날짜 더미데이터를 넣어서 날짜 순대로 출력
+- 갤러리에 해당되는 제목 정리?(가능하면 ..)
+2. Saturn,Uranus,Neptune 무한스크롤 기초적인 부분 구현하기
+3. mercury 갤러리 서브메뉴 미디어쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">1. mercury 서브페이지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>- 행성 움직임 기능구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>- 갤러리 이미지 클릭시 제목 출력 기능구현(이월)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>- 텍스트 미디어쿼리(이월)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>- 갤러리 서브메뉴 미디어 쿼리(이월)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>2. 퀵메뉴바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>3. Mercury,Venus,Earth,Mars</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">서브페이지 </t>
     </r>
@@ -2063,19 +2212,70 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- Mercury,Venus,Earth,Mars</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. mercury 서브페이지 
-- 행성 움직임 기능구현
-- 갤러리 이미지 클릭시 제목 출력 기능구현(이월)
-- 텍스트 미디어쿼리(이월)
-- 갤러리 서브메뉴 미디어 쿼리(이월)
-- 컴포넌트화 시키기
+      <t>- Venus,Earth,Mars</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서브페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Mercury</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서브페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Saturn,Uranus,Neptune</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 서브페이지 분기
+- 이전 구현했던 타이핑 애니메이션 페이지 정리하여 분기완료
+- 제이슨 데이터를 이용해서 클릭 이벤트를 발생시켜서 헤더의 a 태그를 읽었을 때 해당되는 행성의 데이터를 불러올 수 있는 기능 구현
 2. 퀵메뉴바
-3. Mercury,Venus,Earth,Mars</t>
+- mercury 에는 퀵 메뉴바 클릭시 각 메뉴바 섹션으로 넘어갈 수 있도록 스크롤 구현
+- 퀵메뉴바에 메뉴를 클릭했을 때 각 메뉴의 데이터로 내용이 전환되는 기능 구현
+3. mercury, venus, earth, mars, jupiter까지 간단한 미디어쿼리 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3007,6 +3207,9 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3117,9 +3320,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3424,8 +3624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3446,11 +3646,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -3465,7 +3665,7 @@
       </c>
       <c r="E3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="21" t="s">
@@ -3476,56 +3676,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="62">
         <v>45670</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="81"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="67"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -3600,13 +3800,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="82"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="68"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -3691,7 +3891,7 @@
       <c r="E7" s="11">
         <v>45694</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="73" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="22">
@@ -3735,7 +3935,7 @@
       <c r="E8" s="11">
         <v>45694</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>25</v>
@@ -3775,7 +3975,7 @@
       <c r="E9" s="11">
         <v>45694</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3815,7 +4015,7 @@
       <c r="E10" s="11">
         <v>45694</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3855,7 +4055,7 @@
       <c r="E11" s="11">
         <v>45694</v>
       </c>
-      <c r="F11" s="73"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3895,7 +4095,7 @@
       <c r="E12" s="11">
         <v>45694</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3935,7 +4135,7 @@
       <c r="E13" s="11">
         <v>45694</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="22">
         <f t="shared" ref="G13:G34" si="4">IF(E13="","",E13+1-D13)</f>
         <v>25</v>
@@ -3975,7 +4175,7 @@
       <c r="E14" s="11">
         <v>45694</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -4013,7 +4213,7 @@
       <c r="E15" s="11">
         <v>45694</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -4041,7 +4241,7 @@
       <c r="Z15" s="35"/>
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="58" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="53"/>
@@ -4051,7 +4251,7 @@
       <c r="E16" s="11">
         <v>45694</v>
       </c>
-      <c r="F16" s="74"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="22">
         <f>IF(E16="","",E16+1-D16)</f>
         <v>14</v>
@@ -4080,7 +4280,7 @@
     </row>
     <row r="17" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11">
@@ -4089,7 +4289,7 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="76" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="22">
@@ -4123,7 +4323,7 @@
         <v>120</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="11">
         <v>45681</v>
@@ -4131,7 +4331,7 @@
       <c r="E18" s="11">
         <v>45694</v>
       </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18" si="5">IF(E18="","",E18+1-D18)</f>
         <v>14</v>
@@ -4163,7 +4363,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="11">
         <v>45670</v>
@@ -4171,7 +4371,7 @@
       <c r="E19" s="11">
         <v>45681</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4202,7 +4402,7 @@
       <c r="B20" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="59" t="s">
         <v>121</v>
       </c>
       <c r="D20" s="11">
@@ -4211,7 +4411,7 @@
       <c r="E20" s="11">
         <v>45684</v>
       </c>
-      <c r="F20" s="73"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="22">
         <f t="shared" ref="G20:G26" si="6">IF(E20="","",E20+1-D20)</f>
         <v>15</v>
@@ -4242,14 +4442,14 @@
       <c r="B21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="59"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45684</v>
       </c>
-      <c r="F21" s="73"/>
+      <c r="F21" s="74"/>
       <c r="G21" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4280,14 +4480,14 @@
       <c r="B22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45684</v>
       </c>
-      <c r="F22" s="73"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4318,14 +4518,14 @@
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45684</v>
       </c>
-      <c r="F23" s="73"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4356,14 +4556,14 @@
       <c r="B24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="11">
         <v>45670</v>
       </c>
       <c r="E24" s="11">
         <v>45684</v>
       </c>
-      <c r="F24" s="73"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4394,14 +4594,14 @@
       <c r="B25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="11">
         <v>45670</v>
       </c>
       <c r="E25" s="11">
         <v>45684</v>
       </c>
-      <c r="F25" s="73"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4441,7 +4641,7 @@
       <c r="E26" s="11">
         <v>45684</v>
       </c>
-      <c r="F26" s="73"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4481,7 +4681,7 @@
       <c r="E27" s="11">
         <v>45684</v>
       </c>
-      <c r="F27" s="73"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="22">
         <f t="shared" ref="G27" si="7">IF(E27="","",E27+1-D27)</f>
         <v>15</v>
@@ -4517,7 +4717,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="73"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="22" t="str">
         <f t="shared" ref="G28" si="8">IF(E28="","",E28+1-D28)</f>
         <v/>
@@ -4544,12 +4744,12 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="35"/>
     </row>
-    <row r="29" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="38.25" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D29" s="11">
         <v>45670</v>
@@ -4579,12 +4779,12 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="35"/>
     </row>
-    <row r="30" spans="2:26" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="38.25" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D30" s="11">
         <v>45684</v>
@@ -4839,9 +5039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P22" sqref="P22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4859,24 +5059,25 @@
     <col min="13" max="13" width="48.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="49.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="54.25" customWidth="1"/>
-    <col min="16" max="16" width="40.75" customWidth="1"/>
-    <col min="17" max="17" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="72.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.25" customWidth="1"/>
+    <col min="18" max="18" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="27.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
     </row>
     <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
@@ -4886,7 +5087,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -4899,126 +5100,126 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="92"/>
-      <c r="C4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="86" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="93"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="87"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="88"/>
     </row>
     <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="88"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="89"/>
     </row>
     <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5135,10 +5336,10 @@
         <v>116</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
@@ -5202,123 +5403,123 @@
       <c r="X11" s="39"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="92"/>
-      <c r="C12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="86" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="93"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="87"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="88"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="94"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="88"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="89"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
@@ -5418,7 +5619,7 @@
         <v>104</v>
       </c>
       <c r="M16" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N16" s="49" t="s">
         <v>113</v>
@@ -5426,9 +5627,7 @@
       <c r="O16" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="24" t="s">
-        <v>132</v>
-      </c>
+      <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
@@ -5442,123 +5641,123 @@
       <c r="X17" s="39"/>
     </row>
     <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="92"/>
-      <c r="C18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="86" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="93"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="87"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="88"/>
     </row>
     <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="94"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="88"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="89"/>
     </row>
     <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
@@ -5667,15 +5866,17 @@
         <v>110</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P22" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q22" s="43"/>
+        <v>132</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>131</v>
+      </c>
       <c r="R22" s="43"/>
       <c r="S22" s="43"/>
       <c r="T22" s="43"/>
@@ -5717,123 +5918,123 @@
       <c r="X24" s="39"/>
     </row>
     <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="92"/>
-      <c r="C25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="86" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="93"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="87"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="88"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="94"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="88"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="89"/>
     </row>
     <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
@@ -5931,7 +6132,7 @@
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
       <c r="O29" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>

--- a/00.프로젝트 관리/프로젝트 계획서_250124.xlsx
+++ b/00.프로젝트 관리/프로젝트 계획서_250124.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="137">
   <si>
     <t>2차 팀프로젝트 일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +182,6 @@
   </si>
   <si>
     <t>2025-01-27 (월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-01-31 (금)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2033,14 +2029,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.  Venus,Earth,Mars 갤러리
-- 가능하면 최근 게시날짜 더미데이터를 넣어서 날짜 순대로 출력
-- 갤러리에 해당되는 제목 정리?(가능하면 ..)
-2. Saturn,Uranus,Neptune 무한스크롤 기초적인 부분 구현하기
-3. mercury 갤러리 서브메뉴 미디어쿼리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <strike/>
@@ -2276,6 +2264,18 @@
 - mercury 에는 퀵 메뉴바 클릭시 각 메뉴바 섹션으로 넘어갈 수 있도록 스크롤 구현
 - 퀵메뉴바에 메뉴를 클릭했을 때 각 메뉴의 데이터로 내용이 전환되는 기능 구현
 3. mercury, venus, earth, mars, jupiter까지 간단한 미디어쿼리 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  Venus,Earth,Mars 갤러리
+- 가능하면 최근 게시날짜 더미데이터를 넣어서 날짜 순대로 출력
+- 갤러리에 해당되는 제목 정리?(가능하면 ..)
+2. Saturn,Uranus,Neptune 무한스크롤 기초적인 부분 구현하기
+3. mercury 갤러리 서브메뉴 미디어쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  Venus,Earth,Mars 갤러리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3210,6 +3210,45 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3243,15 +3282,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3264,34 +3294,22 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3301,24 +3319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3646,11 +3646,11 @@
   <sheetData>
     <row r="1" spans="2:26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="20"/>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="E3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45684</v>
+        <v>45691</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="21" t="s">
@@ -3676,56 +3676,56 @@
       </c>
     </row>
     <row r="4" spans="2:26" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="64" t="s">
+      <c r="F4" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="75">
         <v>45670</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
     </row>
     <row r="5" spans="2:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="68"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="19">
         <f>I4</f>
         <v>45670</v>
@@ -3800,13 +3800,13 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="83"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="69"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="30">
         <f>I5</f>
         <v>45670</v>
@@ -3891,8 +3891,8 @@
       <c r="E7" s="11">
         <v>45694</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>60</v>
+      <c r="F7" s="83" t="s">
+        <v>59</v>
       </c>
       <c r="G7" s="22">
         <f>IF(E7="","",E7+1-D7)</f>
@@ -3924,10 +3924,10 @@
     </row>
     <row r="8" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="11">
         <v>45670</v>
@@ -3935,7 +3935,7 @@
       <c r="E8" s="11">
         <v>45694</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="84"/>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G12" si="3">IF(E8="","",E8+1-D8)</f>
         <v>25</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="9" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="11">
         <v>45670</v>
@@ -3975,7 +3975,7 @@
       <c r="E9" s="11">
         <v>45694</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4004,10 +4004,10 @@
     </row>
     <row r="10" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="D10" s="11">
         <v>45670</v>
@@ -4015,7 +4015,7 @@
       <c r="E10" s="11">
         <v>45694</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4044,10 +4044,10 @@
     </row>
     <row r="11" spans="2:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="11">
         <v>45670</v>
@@ -4055,7 +4055,7 @@
       <c r="E11" s="11">
         <v>45694</v>
       </c>
-      <c r="F11" s="74"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="12" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="D12" s="11">
         <v>45670</v>
@@ -4095,7 +4095,7 @@
       <c r="E12" s="11">
         <v>45694</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="22">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -4135,7 +4135,7 @@
       <c r="E13" s="11">
         <v>45694</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="22">
         <f t="shared" ref="G13:G34" si="4">IF(E13="","",E13+1-D13)</f>
         <v>25</v>
@@ -4164,10 +4164,10 @@
     </row>
     <row r="14" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="D14" s="11">
         <v>45670</v>
@@ -4175,7 +4175,7 @@
       <c r="E14" s="11">
         <v>45694</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -4213,7 +4213,7 @@
       <c r="E15" s="11">
         <v>45694</v>
       </c>
-      <c r="F15" s="74"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="22">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="16" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="11">
@@ -4251,7 +4251,7 @@
       <c r="E16" s="11">
         <v>45694</v>
       </c>
-      <c r="F16" s="75"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="22">
         <f>IF(E16="","",E16+1-D16)</f>
         <v>14</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="17" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11">
@@ -4289,8 +4289,8 @@
       <c r="E17" s="11">
         <v>45688</v>
       </c>
-      <c r="F17" s="76" t="s">
-        <v>61</v>
+      <c r="F17" s="86" t="s">
+        <v>60</v>
       </c>
       <c r="G17" s="22">
         <f t="shared" si="4"/>
@@ -4320,10 +4320,10 @@
     </row>
     <row r="18" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="11">
         <v>45681</v>
@@ -4331,7 +4331,7 @@
       <c r="E18" s="11">
         <v>45694</v>
       </c>
-      <c r="F18" s="74"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="22">
         <f t="shared" ref="G18" si="5">IF(E18="","",E18+1-D18)</f>
         <v>14</v>
@@ -4360,10 +4360,10 @@
     </row>
     <row r="19" spans="2:26" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="11">
         <v>45670</v>
@@ -4371,7 +4371,7 @@
       <c r="E19" s="11">
         <v>45681</v>
       </c>
-      <c r="F19" s="74"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="22">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -4400,10 +4400,10 @@
     </row>
     <row r="20" spans="2:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>121</v>
+        <v>50</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>120</v>
       </c>
       <c r="D20" s="11">
         <v>45670</v>
@@ -4411,7 +4411,7 @@
       <c r="E20" s="11">
         <v>45684</v>
       </c>
-      <c r="F20" s="74"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="22">
         <f t="shared" ref="G20:G26" si="6">IF(E20="","",E20+1-D20)</f>
         <v>15</v>
@@ -4440,16 +4440,16 @@
     </row>
     <row r="21" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="60"/>
+        <v>51</v>
+      </c>
+      <c r="C21" s="73"/>
       <c r="D21" s="11">
         <v>45670</v>
       </c>
       <c r="E21" s="11">
         <v>45684</v>
       </c>
-      <c r="F21" s="74"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4478,16 +4478,16 @@
     </row>
     <row r="22" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="60"/>
+        <v>62</v>
+      </c>
+      <c r="C22" s="73"/>
       <c r="D22" s="11">
         <v>45670</v>
       </c>
       <c r="E22" s="11">
         <v>45684</v>
       </c>
-      <c r="F22" s="74"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4516,16 +4516,16 @@
     </row>
     <row r="23" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="60"/>
+        <v>63</v>
+      </c>
+      <c r="C23" s="73"/>
       <c r="D23" s="11">
         <v>45670</v>
       </c>
       <c r="E23" s="11">
         <v>45684</v>
       </c>
-      <c r="F23" s="74"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4554,16 +4554,16 @@
     </row>
     <row r="24" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="60"/>
+        <v>64</v>
+      </c>
+      <c r="C24" s="73"/>
       <c r="D24" s="11">
         <v>45670</v>
       </c>
       <c r="E24" s="11">
         <v>45684</v>
       </c>
-      <c r="F24" s="74"/>
+      <c r="F24" s="84"/>
       <c r="G24" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4592,16 +4592,16 @@
     </row>
     <row r="25" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="61"/>
+        <v>90</v>
+      </c>
+      <c r="C25" s="74"/>
       <c r="D25" s="11">
         <v>45670</v>
       </c>
       <c r="E25" s="11">
         <v>45684</v>
       </c>
-      <c r="F25" s="74"/>
+      <c r="F25" s="84"/>
       <c r="G25" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4630,10 +4630,10 @@
     </row>
     <row r="26" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="11">
         <v>45670</v>
@@ -4641,7 +4641,7 @@
       <c r="E26" s="11">
         <v>45684</v>
       </c>
-      <c r="F26" s="74"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -4670,10 +4670,10 @@
     </row>
     <row r="27" spans="2:26" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" s="11">
         <v>45670</v>
@@ -4681,7 +4681,7 @@
       <c r="E27" s="11">
         <v>45684</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="84"/>
       <c r="G27" s="22">
         <f t="shared" ref="G27" si="7">IF(E27="","",E27+1-D27)</f>
         <v>15</v>
@@ -4710,14 +4710,14 @@
     </row>
     <row r="28" spans="2:26" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B28" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="74"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="22" t="str">
         <f t="shared" ref="G28" si="8">IF(E28="","",E28+1-D28)</f>
         <v/>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="29" spans="2:26" ht="38.25" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="11">
         <v>45670</v>
@@ -4781,10 +4781,10 @@
     </row>
     <row r="30" spans="2:26" ht="38.25" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="11">
         <v>45684</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="31" spans="2:26" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11">
@@ -4826,7 +4826,7 @@
         <v>45698</v>
       </c>
       <c r="F31" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" si="4"/>
@@ -4970,11 +4970,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="I4:Z4"/>
     <mergeCell ref="G4:G6"/>
@@ -4982,6 +4977,11 @@
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F7:F16"/>
     <mergeCell ref="F17:F28"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:Z34">
@@ -5037,11 +5037,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P16" sqref="P16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5061,25 +5061,25 @@
     <col min="15" max="15" width="54.25" customWidth="1"/>
     <col min="16" max="16" width="72.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="56.25" customWidth="1"/>
-    <col min="18" max="18" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:24" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+    <row r="1" spans="1:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
     </row>
-    <row r="3" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="F3" s="14" t="s">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">TODAY()</f>
-        <v>45684</v>
+        <v>45691</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>3</v>
@@ -5095,141 +5095,136 @@
       <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="36" t="s">
+      <c r="W3" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="93"/>
-      <c r="C4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="X4" s="87" t="s">
+    <row r="4" spans="1:23" ht="17.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="87"/>
+      <c r="C4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="93" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="94"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="88"/>
+    <row r="5" spans="1:23" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="88"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="94"/>
     </row>
-    <row r="6" spans="1:24" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="95"/>
     </row>
-    <row r="7" spans="1:24" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="27" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>24</v>
@@ -5285,79 +5280,77 @@
       <c r="V7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="26" t="s">
+      <c r="W7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="X7" s="37" t="s">
+    </row>
+    <row r="8" spans="1:23" ht="335.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="335.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
-        <v>44</v>
-      </c>
       <c r="C8" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M8" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="N8" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="O8" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="38"/>
+      <c r="W8" s="38"/>
     </row>
-    <row r="9" spans="1:24" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
@@ -5375,10 +5368,9 @@
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="38"/>
+      <c r="W9" s="38"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -5394,142 +5386,136 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="39"/>
+      <c r="W10" s="39"/>
     </row>
-    <row r="11" spans="1:24" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="E11"/>
-      <c r="X11" s="39"/>
+      <c r="W11" s="39"/>
     </row>
-    <row r="12" spans="1:24" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="93"/>
-      <c r="C12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="87" t="s">
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="87"/>
+      <c r="C12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="93" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="94"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="88"/>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="88"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="94"/>
     </row>
-    <row r="14" spans="1:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="95"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="89"/>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="89"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="95"/>
     </row>
-    <row r="15" spans="1:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>24</v>
@@ -5585,47 +5571,44 @@
       <c r="V15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="W15" s="26" t="s">
+      <c r="W15" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="X15" s="37" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="16" spans="1:24" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="12" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B16" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="47" t="s">
-        <v>88</v>
-      </c>
       <c r="I16" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="52" t="s">
         <v>114</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="O16" s="52" t="s">
-        <v>115</v>
       </c>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -5634,140 +5617,134 @@
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="38"/>
+      <c r="W16" s="38"/>
     </row>
-    <row r="17" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="X17" s="39"/>
+    <row r="17" spans="2:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W17" s="39"/>
     </row>
-    <row r="18" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="93"/>
-      <c r="C18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="67" t="s">
+    <row r="18" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="87"/>
+      <c r="C18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="80" t="s">
         <v>21</v>
       </c>
       <c r="O18" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="87" t="s">
+      <c r="P18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="93" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="94"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
+    <row r="19" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="88"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
       <c r="O19" s="91"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="88"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="94"/>
     </row>
-    <row r="20" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="95"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
+    <row r="20" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="89"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
       <c r="O20" s="92"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="89"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="95"/>
     </row>
-    <row r="21" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>24</v>
@@ -5823,77 +5800,73 @@
       <c r="V21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="26" t="s">
+      <c r="W21" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="X21" s="37" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="22" spans="2:24" s="12" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" s="12" customFormat="1" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I22" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M22" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N22" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="O22" s="43" t="s">
-        <v>129</v>
-      </c>
       <c r="P22" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="43" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="R22" s="43"/>
       <c r="S22" s="43"/>
       <c r="T22" s="43"/>
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="40"/>
+      <c r="W22" s="40"/>
     </row>
-    <row r="23" spans="2:24" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" s="12" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
@@ -5911,140 +5884,134 @@
       <c r="T23" s="43"/>
       <c r="U23" s="43"/>
       <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="38"/>
+      <c r="W23" s="38"/>
     </row>
-    <row r="24" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="X24" s="39"/>
+    <row r="24" spans="2:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W24" s="39"/>
     </row>
-    <row r="25" spans="2:24" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="93"/>
-      <c r="C25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="67" t="s">
+    <row r="25" spans="2:23" s="12" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="87"/>
+      <c r="C25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="80" t="s">
         <v>21</v>
       </c>
       <c r="O25" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="W25" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="87" t="s">
+      <c r="P25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="93" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="94"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
+    <row r="26" spans="2:23" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="88"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
       <c r="O26" s="91"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="88"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="94"/>
     </row>
-    <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="95"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
+    <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="89"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
       <c r="O27" s="92"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="89"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="95"/>
     </row>
-    <row r="28" spans="2:24" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" s="12" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>24</v>
@@ -6100,39 +6067,36 @@
       <c r="V28" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="W28" s="26" t="s">
+      <c r="W28" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="X28" s="37" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="29" spans="2:24" s="12" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" s="12" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="46"/>
       <c r="G29" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
       <c r="K29" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
       <c r="N29" s="27"/>
       <c r="O29" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="27"/>
@@ -6141,14 +6105,86 @@
       <c r="T29" s="27"/>
       <c r="U29" s="27"/>
       <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="41"/>
+      <c r="W29" s="41"/>
     </row>
-    <row r="30" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="89">
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="R18:R20"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C12:C14"/>
@@ -6165,83 +6201,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="Q18:Q20"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="R18:R20"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="T18:T20"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="X18:X20"/>
-    <mergeCell ref="X25:X27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
